--- a/BachMaiCR.Web/Views/Shared/ExcelTemplate/ReportOfCalendarDirector.xlsx
+++ b/BachMaiCR.Web/Views/Shared/ExcelTemplate/ReportOfCalendarDirector.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelancer\BachMai\BachMaiCR\BachMaiCR.Web\Views\Shared\ExcelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="6195"/>
   </bookViews>
@@ -34,18 +39,16 @@
     <t>Điện thoại liên hệ</t>
   </si>
   <si>
-    <t xml:space="preserve">BỘ Y TẾ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BỆNH VIỆN BẠCH MAI
-</t>
+    <t>BỘ Y TẾ</t>
+  </si>
+  <si>
+    <t>BỆNH VIỆN BẠCH MAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,9 +186,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -193,74 +193,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,7 +216,13 @@
     <xdr:ext cx="2667003" cy="246530"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -335,7 +273,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="1F1F1F"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -585,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,7 +537,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +569,7 @@
       <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
